--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3404</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3111</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2125</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1855</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1334</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>590</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3427</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3114</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2127</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1839</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1347</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10">
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Seasonal &amp; Holidays</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Home Decor</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Vintage &amp; Collectibles</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3442</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3110</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2133</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1335</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>601</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Vintage &amp; Collectibles</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3446</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3127</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2127</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1847</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1339</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>699</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8">
@@ -552,37 +552,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3405</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3111</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2144</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1856</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1358</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>709</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8">
@@ -552,37 +552,37 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>469</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3427</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3099</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2080</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1826</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1323</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>748</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>589</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9">
@@ -567,37 +567,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vintage &amp; Collectibles</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3497</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3109</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2127</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1879</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1314</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>709</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>613</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9">
@@ -567,37 +567,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Vintage &amp; Collectibles</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,142 +462,142 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3452</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3092</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2149</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1884</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Kids &amp; Toys</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Kids &amp; Toys</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1342</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Textiles &amp; Cozy Items</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>688</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Fashion &amp; Accessories</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>585</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Home Decor</t>
+          <t>Party Supplies</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Party Supplies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>497</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>493</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Kitchen &amp; Dining</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Home Decor</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Vintage &amp; Collectibles</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>447</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
+++ b/Results/last_two_thirds/last_two_thirds_word2vec_top_category_combinations.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2850</v>
+        <v>14248</v>
       </c>
     </row>
     <row r="3">
@@ -477,97 +477,97 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2307</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stationery &amp; Office</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1329</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seasonal &amp; Holidays</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1143</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kids &amp; Toys</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>502</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Textiles &amp; Cozy Items</t>
+          <t>Kitchen &amp; Dining</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>478</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fashion &amp; Accessories</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>409</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Party Supplies</t>
+          <t>Home Decor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Party Supplies</t>
+          <t>Seasonal &amp; Holidays</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>371</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="10">
@@ -578,17 +578,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>342</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kitchen &amp; Dining</t>
+          <t>Stationery &amp; Office</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>339</v>
+        <v>2492</v>
       </c>
     </row>
   </sheetData>
